--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -499,19 +499,19 @@
         <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>450.133</v>
+        <v>296.855</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>0.609</v>
       </c>
       <c r="G2" t="n">
-        <v>0.255</v>
+        <v>-0.219</v>
       </c>
       <c r="H2" t="n">
-        <v>21.536</v>
+        <v>16.862</v>
       </c>
       <c r="I2" t="n">
-        <v>19.571</v>
+        <v>26.733</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -532,19 +532,19 @@
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>297.275</v>
+        <v>300.719</v>
       </c>
       <c r="F3" t="n">
-        <v>0.569</v>
+        <v>0.6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.436</v>
+        <v>-0.119</v>
       </c>
       <c r="H3" t="n">
-        <v>18.12</v>
+        <v>17.062</v>
       </c>
       <c r="I3" t="n">
-        <v>17.179</v>
+        <v>25.903</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -565,19 +565,19 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>273.512</v>
+        <v>277.354</v>
       </c>
       <c r="F4" t="n">
-        <v>0.669</v>
+        <v>0.646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.507</v>
+        <v>-0.128</v>
       </c>
       <c r="H4" t="n">
-        <v>15.995</v>
+        <v>16.104</v>
       </c>
       <c r="I4" t="n">
-        <v>16.27</v>
+        <v>25.894</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -598,19 +598,19 @@
         <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>253.137</v>
+        <v>268.599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.612</v>
+        <v>0.666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.485</v>
+        <v>-0.139</v>
       </c>
       <c r="H5" t="n">
-        <v>17.284</v>
+        <v>15.552</v>
       </c>
       <c r="I5" t="n">
-        <v>16.553</v>
+        <v>26.071</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -631,19 +631,19 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>282.81</v>
+        <v>218.629</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="G6" t="n">
-        <v>0.492</v>
+        <v>0.311</v>
       </c>
       <c r="H6" t="n">
-        <v>15.615</v>
+        <v>14.177</v>
       </c>
       <c r="I6" t="n">
-        <v>16.437</v>
+        <v>20.383</v>
       </c>
     </row>
     <row r="7">
@@ -654,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,19 +664,19 @@
         <v>0.001</v>
       </c>
       <c r="E7" t="n">
-        <v>262.733</v>
+        <v>233.164</v>
       </c>
       <c r="F7" t="n">
-        <v>0.631</v>
+        <v>0.708</v>
       </c>
       <c r="G7" t="n">
-        <v>0.553</v>
+        <v>0.304</v>
       </c>
       <c r="H7" t="n">
-        <v>16.902</v>
+        <v>14.48</v>
       </c>
       <c r="I7" t="n">
-        <v>15.433</v>
+        <v>20.283</v>
       </c>
     </row>
     <row r="8">
@@ -687,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -697,580 +697,19 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>308.077</v>
+        <v>236.563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.279</v>
+        <v>0.709</v>
       </c>
       <c r="G8" t="n">
-        <v>0.419</v>
+        <v>-0.11</v>
       </c>
       <c r="H8" t="n">
-        <v>23.583</v>
+        <v>14.551</v>
       </c>
       <c r="I8" t="n">
-        <v>16.997</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>207.455</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17.506</v>
-      </c>
-      <c r="I9" t="n">
-        <v>16.186</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E10" t="n">
-        <v>318.882</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.404</v>
-      </c>
-      <c r="H10" t="n">
-        <v>17.649</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17.872</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>302.886</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.544</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="H11" t="n">
-        <v>18.218</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18.397</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E12" t="n">
-        <v>281.341</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15.944</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16.364</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>235.334</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14.856</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15.916</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E14" t="n">
-        <v>248.879</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.152</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16.61</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>252.415</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15.483</v>
-      </c>
-      <c r="I15" t="n">
-        <v>16.873</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E16" t="n">
-        <v>289.923</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16.658</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16.714</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>219.133</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.732</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13.911</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16.076</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E18" t="n">
-        <v>534.495</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.238</v>
-      </c>
-      <c r="H18" t="n">
-        <v>20.769</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27.144</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>671.708</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.129</v>
-      </c>
-      <c r="H19" t="n">
-        <v>24.851</v>
-      </c>
-      <c r="I19" t="n">
-        <v>25.821</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E20" t="n">
-        <v>727.9829999999999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.169</v>
-      </c>
-      <c r="H20" t="n">
-        <v>26.289</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26.146</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1204.238</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.163</v>
-      </c>
-      <c r="H21" t="n">
-        <v>26.723</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26.444</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E22" t="n">
-        <v>507.023</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.151</v>
-      </c>
-      <c r="H22" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26.221</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E23" t="n">
-        <v>601.535</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.138</v>
-      </c>
-      <c r="H23" t="n">
-        <v>22.095</v>
-      </c>
-      <c r="I23" t="n">
-        <v>26.113</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E24" t="n">
-        <v>275.589</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15.898</v>
-      </c>
-      <c r="I24" t="n">
-        <v>21.574</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E25" t="n">
-        <v>625.33</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.178</v>
-      </c>
-      <c r="H25" t="n">
-        <v>22.191</v>
-      </c>
-      <c r="I25" t="n">
-        <v>26.528</v>
+        <v>25.743</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,19 +499,19 @@
         <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>296.855</v>
+        <v>319.631</v>
       </c>
       <c r="F2" t="n">
-        <v>0.609</v>
+        <v>0.581</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.219</v>
+        <v>-0.166</v>
       </c>
       <c r="H2" t="n">
-        <v>16.862</v>
+        <v>17.496</v>
       </c>
       <c r="I2" t="n">
-        <v>26.733</v>
+        <v>26.298</v>
       </c>
     </row>
     <row r="3">
@@ -532,19 +532,19 @@
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>300.719</v>
+        <v>268.201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.642</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.119</v>
+        <v>-0.107</v>
       </c>
       <c r="H3" t="n">
-        <v>17.062</v>
+        <v>16.113</v>
       </c>
       <c r="I3" t="n">
-        <v>25.903</v>
+        <v>25.643</v>
       </c>
     </row>
     <row r="4">
@@ -565,19 +565,19 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>277.354</v>
+        <v>281.828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.646</v>
+        <v>0.647</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.128</v>
+        <v>-0.18</v>
       </c>
       <c r="H4" t="n">
-        <v>16.104</v>
+        <v>16.071</v>
       </c>
       <c r="I4" t="n">
-        <v>25.894</v>
+        <v>26.649</v>
       </c>
     </row>
     <row r="5">
@@ -598,19 +598,19 @@
         <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>268.599</v>
+        <v>247.189</v>
       </c>
       <c r="F5" t="n">
-        <v>0.666</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.139</v>
+        <v>-0.187</v>
       </c>
       <c r="H5" t="n">
-        <v>15.552</v>
+        <v>15.113</v>
       </c>
       <c r="I5" t="n">
-        <v>26.071</v>
+        <v>26.324</v>
       </c>
     </row>
     <row r="6">
@@ -631,19 +631,19 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>218.629</v>
+        <v>246.392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.72</v>
+        <v>0.681</v>
       </c>
       <c r="G6" t="n">
-        <v>0.311</v>
+        <v>-0.12</v>
       </c>
       <c r="H6" t="n">
-        <v>14.177</v>
+        <v>15.246</v>
       </c>
       <c r="I6" t="n">
-        <v>20.383</v>
+        <v>25.855</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>0.001</v>
       </c>
       <c r="E7" t="n">
-        <v>233.164</v>
+        <v>200.709</v>
       </c>
       <c r="F7" t="n">
-        <v>0.708</v>
+        <v>0.735</v>
       </c>
       <c r="G7" t="n">
-        <v>0.304</v>
+        <v>-0.118</v>
       </c>
       <c r="H7" t="n">
-        <v>14.48</v>
+        <v>13.797</v>
       </c>
       <c r="I7" t="n">
-        <v>20.283</v>
+        <v>25.955</v>
       </c>
     </row>
     <row r="8">
@@ -697,19 +697,118 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>236.563</v>
+        <v>198.875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.709</v>
+        <v>0.736</v>
       </c>
       <c r="G8" t="n">
         <v>-0.11</v>
       </c>
       <c r="H8" t="n">
-        <v>14.551</v>
+        <v>13.815</v>
       </c>
       <c r="I8" t="n">
-        <v>25.743</v>
+        <v>25.784</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aryl_halide</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>194.97</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.144</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.228</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26.219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aryl_halide</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="n">
+        <v>204.191</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.192</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.458</v>
+      </c>
+      <c r="I10" t="n">
+        <v>26.809</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aryl_halide</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>181.657</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.977</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.317</v>
       </c>
     </row>
   </sheetData>
